--- a/medicine/Sexualité et sexologie/La_Nonne_et_les_Sept_Pécheresses/La_Nonne_et_les_Sept_Pécheresses.xlsx
+++ b/medicine/Sexualité et sexologie/La_Nonne_et_les_Sept_Pécheresses/La_Nonne_et_les_Sept_Pécheresses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Nonne_et_les_Sept_P%C3%A9cheresses</t>
+          <t>La_Nonne_et_les_Sept_Pécheresses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Nonne est les Sept Pécheresses (Io monaca... per tre carogne e sette peccatrici) est un film italo-ouest-allemand sorti en 1972, réalisé par Ernst von Theumer[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Nonne est les Sept Pécheresses (Io monaca... per tre carogne e sette peccatrici) est un film italo-ouest-allemand sorti en 1972, réalisé par Ernst von Theumer.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Nonne_et_les_Sept_P%C3%A9cheresses</t>
+          <t>La_Nonne_et_les_Sept_Pécheresses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sœur Maria visite souvent une prison de femmes dans un pays du Moyen-Orient. Elle suggère de faire sortir quelques filles dans son couvent. Les prisonnières trompent la surveillance et se déguisent en religieuses pour s'enfuir, se rendant dans la luxueuse demeure des frères Schultz, sur le conseil d'une amie, Nadia. Bob Schultz profite de la situation pour vendre les fugitives, la sœur et Nadia à un jeune prince. Après quelques bousculades dans leur demeure, les deux frères Schultz découvrent la cachette du trésor du prince. Jeff en profite aussi et libère les femmes. Dans la bagarre qui s'ensuit dans le château du prince, le prince lui-même, ses serviteurs et plusieurs des filles sont tués. Même sœur Maria, qui en vient à tuer Bob, meurt ensuite. Jeff et deux des filles parviendront seuls à s'échapper du lieu du massacre.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Nonne_et_les_Sept_P%C3%A9cheresses</t>
+          <t>La_Nonne_et_les_Sept_Pécheresses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre français : La Nonne et les Sept Pécheresses[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre français : La Nonne et les Sept Pécheresses
 Titre original italien : Io monaca...per tre carogne e sette peccatrici
 Titre allemand : Ich, die Nonne und die Schweinehunde ou Die Rache der geschändeten Frauen
 Réalisation : Ernst von Theumer
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Nonne_et_les_Sept_P%C3%A9cheresses</t>
+          <t>La_Nonne_et_les_Sept_Pécheresses</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tony Kendall : Jeff
 Monica Teuber : sœur Maria
